--- a/Analise_QT_VL_Beneficiário/VV_componente_class.xlsx
+++ b/Analise_QT_VL_Beneficiário/VV_componente_class.xlsx
@@ -4,26 +4,22 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="105" windowWidth="23760" windowHeight="9795" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="23760" windowHeight="9795"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
     <sheet name="Plan2" sheetId="2" r:id="rId2"/>
-    <sheet name="Plan3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="58">
   <si>
     <t>INTERNACAO</t>
   </si>
   <si>
-    <t>CONPONENTE</t>
-  </si>
-  <si>
     <t>Não</t>
   </si>
   <si>
@@ -178,6 +174,21 @@
   </si>
   <si>
     <t xml:space="preserve">Oftalmologia </t>
+  </si>
+  <si>
+    <t>CLASSE</t>
+  </si>
+  <si>
+    <t>Emergência</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Exames e Tratamentos</t>
+  </si>
+  <si>
+    <t>COMPONENTE</t>
   </si>
 </sst>
 </file>
@@ -771,10 +782,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -784,182 +795,251 @@
     <col min="3" max="3" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="C17" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="C18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="C20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="C21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="C22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>12</v>
+      <c r="C23" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -975,8 +1055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:E53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A37" sqref="A1:F1048576"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -989,7 +1069,7 @@
   <sheetData>
     <row r="2" spans="1:5">
       <c r="A2" s="45" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="46"/>
       <c r="C2" s="46"/>
@@ -998,24 +1078,24 @@
     </row>
     <row r="3" spans="1:5" ht="75">
       <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" s="4">
         <v>682.2</v>
@@ -1032,7 +1112,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" s="8">
         <v>581.1</v>
@@ -1049,7 +1129,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" s="11">
         <v>121.2</v>
@@ -1066,7 +1146,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" s="11">
         <v>86.6</v>
@@ -1083,7 +1163,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B8" s="1">
         <v>1471.1000000000001</v>
@@ -1110,7 +1190,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="47" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11" s="48"/>
       <c r="C11" s="48"/>
@@ -1119,24 +1199,24 @@
     </row>
     <row r="12" spans="1:5" ht="105">
       <c r="A12" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="18" t="s">
-        <v>16</v>
-      </c>
       <c r="C12" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="19" t="s">
-        <v>27</v>
-      </c>
       <c r="E12" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B13" s="21">
         <v>243.95472000000001</v>
@@ -1153,7 +1233,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B14" s="24">
         <v>107.58294000000001</v>
@@ -1166,7 +1246,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B15" s="27">
         <v>85.138559999999998</v>
@@ -1179,7 +1259,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B16" s="29">
         <v>124.97904000000001</v>
@@ -1196,7 +1276,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B17" s="29">
         <v>52.120080000000002</v>
@@ -1213,7 +1293,7 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="32" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B18" s="29">
         <v>51.778979999999997</v>
@@ -1230,7 +1310,7 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="32" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B19" s="29">
         <v>16.577459999999999</v>
@@ -1247,7 +1327,7 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="50" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B21" s="51"/>
       <c r="C21" s="51"/>
@@ -1255,21 +1335,21 @@
     </row>
     <row r="22" spans="1:5" ht="90">
       <c r="A22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="C22" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="D22" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B23" s="33">
         <v>32.285290109999998</v>
@@ -1284,7 +1364,7 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B24" s="36">
         <v>17.00909592</v>
@@ -1298,7 +1378,7 @@
     </row>
     <row r="25" spans="1:5" ht="15.75" thickBot="1">
       <c r="A25" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B25" s="33">
         <v>36.1</v>
@@ -1312,7 +1392,7 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="37" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26" s="38">
         <v>85.394386029999993</v>
@@ -1326,24 +1406,24 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="53" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B28" s="54"/>
       <c r="C28" s="54"/>
       <c r="D28" s="55"/>
     </row>
-    <row r="29" spans="1:5" ht="75">
+    <row r="29" spans="1:5" ht="45">
       <c r="A29" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="D29" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1366,7 +1446,7 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="37" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B33" s="38">
         <v>0</v>
@@ -1380,29 +1460,29 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="56" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B36" s="57"/>
       <c r="C36" s="57"/>
       <c r="D36" s="58"/>
     </row>
-    <row r="37" spans="1:4" ht="75.75" thickBot="1">
+    <row r="37" spans="1:4" ht="45.75" thickBot="1">
       <c r="A37" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="D37" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15.75" thickBot="1">
       <c r="A38" s="41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B38" s="33"/>
       <c r="C38" s="12"/>
@@ -1410,7 +1490,7 @@
     </row>
     <row r="39" spans="1:4" ht="15.75" thickBot="1">
       <c r="A39" s="41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B39" s="36"/>
       <c r="C39" s="12"/>
@@ -1418,7 +1498,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="37" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B40" s="38">
         <v>0</v>
@@ -1432,29 +1512,29 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="59" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B44" s="60"/>
       <c r="C44" s="60"/>
       <c r="D44" s="61"/>
     </row>
-    <row r="45" spans="1:4" ht="75">
+    <row r="45" spans="1:4" ht="45">
       <c r="A45" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="C45" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B46" s="33">
         <v>45.4</v>
@@ -1468,7 +1548,7 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B47" s="33">
         <v>18.399999999999999</v>
@@ -1482,7 +1562,7 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B48" s="33">
         <v>58.2</v>
@@ -1496,7 +1576,7 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B49" s="33">
         <v>11.8</v>
@@ -1510,7 +1590,7 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B50" s="33">
         <v>23.6</v>
@@ -1524,7 +1604,7 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B51" s="33">
         <v>113.7</v>
@@ -1538,7 +1618,7 @@
     </row>
     <row r="52" spans="1:4" ht="15.75" thickBot="1">
       <c r="A52" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B52" s="33">
         <v>27.7</v>
@@ -1552,7 +1632,7 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="42" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B53" s="42">
         <v>298.8</v>
@@ -1567,16 +1647,4 @@
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
 </file>